--- a/biology/Médecine/Pierre_Nicolas_Gerdy/Pierre_Nicolas_Gerdy.xlsx
+++ b/biology/Médecine/Pierre_Nicolas_Gerdy/Pierre_Nicolas_Gerdy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Nicolas Gerdy est un anatomiste, physiologiste, chirurgien médecin et homme politique français né le 1er mai 1797 à Loches-sur-Ource (Aube) et mort le 18 mars 1856 à Paris[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Nicolas Gerdy est un anatomiste, physiologiste, chirurgien médecin et homme politique français né le 1er mai 1797 à Loches-sur-Ource (Aube) et mort le 18 mars 1856 à Paris,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Médecin, il est d'abord aide-naturaliste au Muséum national d'histoire naturelle à Paris, interne à la Pitié-Salpêtrière en 1828 et professeur de pathologie interne en 1833. Membre de l'Académie de médecine de Paris en 1834, il devient chef du service chirurgical de la Charité en 1838. Il est député de l'Aube de 1848 à 1849, siégeant à gauche.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Essai de classification naturelle et d'analyse des phénomènes de la vie, J.-B. Baillière (Paris), 1823, lire en ligne sur Gallica.
 Traité des bandages (1826).
